--- a/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
+++ b/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070"/>
+    <workbookView windowWidth="28080" windowHeight="14070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="月季度报表模板" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>${name}汽车运输有限公司GPS动态监控数据信息统计分析表</t>
   </si>
@@ -159,6 +159,11 @@
     <t>${ns}</t>
   </si>
   <si>
+    <t>1、不在线车辆有${nocount}张，有（${noCarNumber}......），不在线原因是因为货源不正常，车辆停放维修，车辆做四轮保养。
+2、超速车辆有${spcount}张，有（${spCarNumber}......）,当天以告知驾驶员减速慢行，并进行口头批评及安全教育。
+3、疲劳驾驶有${trcount}张，有（${trCarNumebr}......）,当天以电话告知驾驶员停车休息，或更换其他驾驶员驾驶。</t>
+  </si>
+  <si>
     <t>负责人：                             填表人：                           电话：</t>
   </si>
 </sst>
@@ -168,11 +173,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +201,86 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -206,37 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +314,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,56 +338,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,20 +352,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,43 +362,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,139 +536,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,6 +804,15 @@
       <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -827,26 +847,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -864,9 +864,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,15 +905,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -902,10 +913,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,140 +925,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1103,24 +1114,42 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1138,6 +1167,15 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="11" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1478,7 +1516,7 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:L2"/>
     </sheetView>
   </sheetViews>
@@ -1593,7 +1631,7 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="29"/>
+      <c r="L5" s="35"/>
     </row>
     <row r="6" ht="31.15" customHeight="1" spans="1:12">
       <c r="A6" s="7" t="s">
@@ -1606,8 +1644,8 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="17"/>
       <c r="L6" s="16"/>
     </row>
@@ -1631,161 +1669,161 @@
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="40"/>
     </row>
     <row r="9" ht="13.5" spans="1:12">
       <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="32"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" ht="13.5" spans="1:12">
       <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="32"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" ht="13.5" spans="1:12">
       <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="32"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" ht="13.5" spans="1:12">
       <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="32"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" ht="13.5" spans="1:12">
       <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="32"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:12">
       <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="42"/>
     </row>
     <row r="15" ht="13.5" spans="1:12">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" ht="13.5" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" ht="37.15" customHeight="1" spans="1:12">
       <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -1821,8 +1859,8 @@
   <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1942,7 +1980,7 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="29" t="s">
+      <c r="L5" s="35" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1957,8 +1995,8 @@
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="17"/>
       <c r="L6" s="16"/>
     </row>
@@ -1978,11 +2016,13 @@
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" ht="13.5" spans="1:12">
+    <row r="8" spans="1:12">
       <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1992,9 +2032,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
-      <c r="L8" s="31"/>
-    </row>
-    <row r="9" ht="13.5" spans="1:12">
+      <c r="L8" s="37"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="21"/>
       <c r="B9" s="22"/>
       <c r="C9" s="23"/>
@@ -2006,9 +2046,9 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" ht="13.5" spans="1:12">
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -2020,9 +2060,9 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="32"/>
-    </row>
-    <row r="11" ht="13.5" spans="1:12">
+      <c r="L10" s="38"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -2034,9 +2074,9 @@
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" ht="13.5" spans="1:12">
+      <c r="L11" s="38"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -2048,9 +2088,9 @@
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="32"/>
-    </row>
-    <row r="13" ht="13.5" spans="1:12">
+      <c r="L12" s="38"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -2062,7 +2102,7 @@
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="32"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:12">
       <c r="A14" s="24"/>
@@ -2076,67 +2116,67 @@
       <c r="I14" s="26"/>
       <c r="J14" s="26"/>
       <c r="K14" s="26"/>
-      <c r="L14" s="33"/>
-    </row>
-    <row r="15" ht="13.5" spans="1:12">
+      <c r="L14" s="39"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="31"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" ht="13.5" spans="1:12">
       <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="32"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="41"/>
     </row>
     <row r="17" ht="37.15" customHeight="1" spans="1:12">
       <c r="A17" s="24"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="33"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="42"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="34"/>
+      <c r="A18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
+++ b/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
@@ -51,7 +51,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">jx:area(lastCell="M5")
+          <t xml:space="preserve">jx:area(lastCell="M17")
 </t>
         </r>
       </text>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>${name}汽车运输有限公司GPS动态监控数据信息统计分析表</t>
   </si>
@@ -159,9 +159,18 @@
     <t>${ns}</t>
   </si>
   <si>
-    <t>1、不在线车辆有${nocount}张，有（${noCarNumber}......），不在线原因是因为货源不正常，车辆停放维修，车辆做四轮保养。
-2、超速车辆有${spcount}张，有（${spCarNumber}......）,当天以告知驾驶员减速慢行，并进行口头批评及安全教育。
-3、疲劳驾驶有${trcount}张，有（${trCarNumebr}......）,当天以电话告知驾驶员停车休息，或更换其他驾驶员驾驶。</t>
+    <t>${iicount}</t>
+  </si>
+  <si>
+    <t>${sscount}</t>
+  </si>
+  <si>
+    <t>${ttcount}</t>
+  </si>
+  <si>
+    <t>1、不在线车辆有${icount}张，有（${noCarNumber}......），不在线原因是因为货源不正常，车辆停放维修，车辆做四轮保养。
+2、超速车辆有${scount}张，有（${spCarNumber}）,当天以告知驾驶员减速慢行，并进行口头批评及安全教育。
+3、疲劳驾驶有${tcount}张，有（${trCarNumebr}......）,当天以电话告知驾驶员停车休息，或更换其他驾驶员驾驶。</t>
   </si>
   <si>
     <t>负责人：                             填表人：                           电话：</t>
@@ -172,10 +181,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -207,6 +216,103 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -217,21 +323,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -241,34 +332,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -283,6 +346,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,68 +361,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -362,61 +371,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,67 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,48 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,11 +817,85 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,80 +914,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,10 +922,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -925,133 +934,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1860,7 +1869,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L14"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -1989,13 +1998,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="36"/>
+      <c r="I6" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="J6" s="36"/>
       <c r="K6" s="17"/>
       <c r="L6" s="16"/>
@@ -2021,7 +2036,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2048,7 +2063,7 @@
       <c r="K9" s="23"/>
       <c r="L9" s="38"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" ht="13.5" spans="1:12">
       <c r="A10" s="21"/>
       <c r="B10" s="22"/>
       <c r="C10" s="23"/>
@@ -2062,7 +2077,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="38"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" ht="13.5" spans="1:12">
       <c r="A11" s="21"/>
       <c r="B11" s="22"/>
       <c r="C11" s="23"/>
@@ -2076,7 +2091,7 @@
       <c r="K11" s="23"/>
       <c r="L11" s="38"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" ht="13.5" spans="1:12">
       <c r="A12" s="21"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
@@ -2090,7 +2105,7 @@
       <c r="K12" s="23"/>
       <c r="L12" s="38"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" ht="13.5" spans="1:12">
       <c r="A13" s="21"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
@@ -2118,7 +2133,7 @@
       <c r="K14" s="26"/>
       <c r="L14" s="39"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" ht="13.5" spans="1:12">
       <c r="A15" s="18" t="s">
         <v>18</v>
       </c>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="33" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>

--- a/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
+++ b/src/main/resources/doc/月季度运营车辆GPS监控平台监控管理台账.xlsx
@@ -1869,7 +1869,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
